--- a/dir/spesa_pw.xlsx
+++ b/dir/spesa_pw.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>NOME PRODOTTO</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>farfalle</t>
+  </si>
+  <si>
+    <t>pasta</t>
+  </si>
+  <si>
+    <t>ciao</t>
   </si>
 </sst>
 </file>
@@ -336,9 +342,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2"/>

--- a/dir/spesa_pw.xlsx
+++ b/dir/spesa_pw.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>NOME PRODOTTO</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>farfalle</t>
+  </si>
+  <si>
+    <t>Tortine</t>
+  </si>
+  <si>
+    <t>youlty</t>
+  </si>
+  <si>
+    <t>Integrale Mezzi Rigatoni</t>
+  </si>
+  <si>
+    <t>conad</t>
+  </si>
+  <si>
+    <t>Integrale Spaghetti</t>
   </si>
   <si>
     <t>pasta</t>
@@ -41,13 +56,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -77,13 +96,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,492 +368,510 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>3.0</v>
+      <c r="B4" s="2">
+        <v>6.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
     </row>
     <row r="46">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
     </row>
     <row r="58">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
     </row>
     <row r="64">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
     </row>
     <row r="65">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
     </row>
     <row r="67">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
     </row>
     <row r="68">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
     </row>
     <row r="69">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
     </row>
     <row r="70">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
     </row>
     <row r="71">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
     </row>
     <row r="72">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
     </row>
     <row r="73">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
     </row>
     <row r="74">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
     </row>
     <row r="76">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
     </row>
     <row r="77">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
     </row>
     <row r="79">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
     </row>
     <row r="80">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
     </row>
     <row r="81">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
     </row>
     <row r="82">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
     </row>
     <row r="83">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
     </row>
     <row r="84">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
     </row>
     <row r="85">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
     </row>
     <row r="86">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
     </row>
     <row r="87">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
     </row>
     <row r="88">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
     </row>
     <row r="89">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
     </row>
     <row r="90">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
     </row>
     <row r="91">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
     </row>
     <row r="92">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
     </row>
     <row r="93">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
     </row>
     <row r="94">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
     </row>
     <row r="95">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
     </row>
     <row r="96">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
     </row>
     <row r="97">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
     </row>
     <row r="98">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
     </row>
     <row r="99">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
     </row>
     <row r="100">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/dir/spesa_pw.xlsx
+++ b/dir/spesa_pw.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>NOME PRODOTTO</t>
   </si>
@@ -50,6 +50,30 @@
   </si>
   <si>
     <t>ciao</t>
+  </si>
+  <si>
+    <t>Yogurt Greco Fragola</t>
+  </si>
+  <si>
+    <t>Cremosi Stracciatella Yogurt</t>
+  </si>
+  <si>
+    <t>Mezzi Pennoni Rigati</t>
+  </si>
+  <si>
+    <t>de cecco</t>
+  </si>
+  <si>
+    <t>Mezzi Tufoli</t>
+  </si>
+  <si>
+    <t>Orecchiette Grandi</t>
+  </si>
+  <si>
+    <t>priprova</t>
+  </si>
+  <si>
+    <t>Sedanini</t>
   </si>
 </sst>
 </file>
@@ -96,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -106,7 +130,6 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -409,469 +432,511 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
     </row>
     <row r="70">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
     </row>
     <row r="71">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
     </row>
     <row r="72">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
     </row>
     <row r="75">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
     </row>
     <row r="76">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
     </row>
     <row r="77">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
     </row>
     <row r="78">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
     </row>
     <row r="79">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
     </row>
     <row r="80">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
     </row>
     <row r="81">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
     </row>
     <row r="82">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
     </row>
     <row r="83">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
     </row>
     <row r="84">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
     </row>
     <row r="85">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
     </row>
     <row r="86">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
     </row>
     <row r="87">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
     </row>
     <row r="88">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
     </row>
     <row r="89">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
     </row>
     <row r="90">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
     </row>
     <row r="91">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
     </row>
     <row r="92">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
     </row>
     <row r="93">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
     </row>
     <row r="94">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
     </row>
     <row r="95">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
     </row>
     <row r="96">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
     </row>
     <row r="97">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
     </row>
     <row r="98">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
     </row>
     <row r="99">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
     </row>
     <row r="100">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
